--- a/random정렬.xlsx
+++ b/random정렬.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moon9\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moon9\my-awesome-site\sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8256" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22836" windowHeight="8448" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,22 +21,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t>셸</x:t>
+    <x:t>퀵</x:t>
   </x:si>
   <x:si>
-    <x:t>퀵</x:t>
+    <x:t>버블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삽입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택</x:t>
   </x:si>
   <x:si>
     <x:t>힙</x:t>
   </x:si>
   <x:si>
-    <x:t>선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삽입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버블</x:t>
+    <x:t>셸</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -104,7 +104,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -515,7 +518,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -563,6 +566,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -696,6 +700,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -829,6 +834,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -962,6 +968,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1095,6 +1102,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1228,6 +1236,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1425,7 +1434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1437,8 +1446,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame fPublished="0">
       <xdr:nvGraphicFramePr>
@@ -1446,8 +1455,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7181849" y="333375"/>
-        <a:ext cx="8267701" cy="3686175"/>
+        <a:off x="7181850" y="333375"/>
+        <a:ext cx="8267700" cy="4191000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1776,424 +1785,424 @@
   <x:dimension ref="A1:G17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F21" activeCellId="0" sqref="F21:F21"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="10.52734375" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.51171875" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.52734375" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="7" width="8.796875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="10.52734375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.51171875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.52734375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="7" width="8.796875" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C1" t="s">
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2">
+      <x:c r="A2" s="1">
         <x:f>2^5</x:f>
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B2">
+      <x:c r="B2" s="1">
         <x:v>0.000010000000000000001</x:v>
       </x:c>
-      <x:c r="C2">
+      <x:c r="C2" s="1">
         <x:v>0.0000009999999999999999</x:v>
       </x:c>
-      <x:c r="D2">
+      <x:c r="D2" s="1">
         <x:v>0.0000029999999999999999</x:v>
       </x:c>
-      <x:c r="E2">
+      <x:c r="E2" s="1">
         <x:v>0.0000029999999999999999</x:v>
       </x:c>
-      <x:c r="F2">
+      <x:c r="F2" s="1">
         <x:v>0.0000019999999999999998</x:v>
       </x:c>
-      <x:c r="G2">
+      <x:c r="G2" s="1">
         <x:v>0.0000029999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3">
+      <x:c r="A3" s="1">
         <x:f>2^6</x:f>
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B3">
+      <x:c r="B3" s="1">
         <x:v>0.0000059999999999999998</x:v>
       </x:c>
-      <x:c r="C3">
+      <x:c r="C3" s="1">
         <x:v>0.0000029999999999999999</x:v>
       </x:c>
-      <x:c r="D3">
+      <x:c r="D3" s="1">
         <x:v>0.0000069999999999999996</x:v>
       </x:c>
-      <x:c r="E3">
+      <x:c r="E3" s="1">
         <x:v>0.0000039999999999999997</x:v>
       </x:c>
-      <x:c r="F3">
+      <x:c r="F3" s="1">
         <x:v>0.0000029999999999999999</x:v>
       </x:c>
-      <x:c r="G3">
+      <x:c r="G3" s="1">
         <x:v>0.0000059999999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4">
+      <x:c r="A4" s="1">
         <x:f>2^7</x:f>
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B4">
+      <x:c r="B4" s="1">
         <x:v>0.000017999999999999999</x:v>
       </x:c>
-      <x:c r="C4">
+      <x:c r="C4" s="1">
         <x:v>0.0000059999999999999998</x:v>
       </x:c>
-      <x:c r="D4">
+      <x:c r="D4" s="1">
         <x:v>0.000031</x:v>
       </x:c>
-      <x:c r="E4">
+      <x:c r="E4" s="1">
         <x:v>0.0000090000000000000002</x:v>
       </x:c>
-      <x:c r="F4">
+      <x:c r="F4" s="1">
         <x:v>0.0000069999999999999996</x:v>
       </x:c>
-      <x:c r="G4">
+      <x:c r="G4" s="1">
         <x:v>0.0000090000000000000002</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5">
+      <x:c r="A5" s="1">
         <x:f>2^8</x:f>
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B5">
+      <x:c r="B5" s="1">
         <x:v>0.000034999999999999998</x:v>
       </x:c>
-      <x:c r="C5">
+      <x:c r="C5" s="1">
         <x:v>0.000017999999999999999</x:v>
       </x:c>
-      <x:c r="D5">
+      <x:c r="D5" s="1">
         <x:v>0.000080000000000000004</x:v>
       </x:c>
-      <x:c r="E5">
+      <x:c r="E5" s="1">
         <x:v>0.000017999999999999999</x:v>
       </x:c>
-      <x:c r="F5">
+      <x:c r="F5" s="1">
         <x:v>0.000013999999999999999</x:v>
       </x:c>
-      <x:c r="G5">
+      <x:c r="G5" s="1">
         <x:v>0.000034000000000000002</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6">
+      <x:c r="A6" s="1">
         <x:f>2^9</x:f>
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B6">
+      <x:c r="B6" s="1">
         <x:v>0.000095000000000000007</x:v>
       </x:c>
-      <x:c r="C6">
+      <x:c r="C6" s="1">
         <x:v>0.000041000000000000003</x:v>
       </x:c>
-      <x:c r="D6">
+      <x:c r="D6" s="1">
         <x:v>0.00023200000000000001</x:v>
       </x:c>
-      <x:c r="E6">
+      <x:c r="E6" s="1">
         <x:v>0.000038</x:v>
       </x:c>
-      <x:c r="F6">
+      <x:c r="F6" s="1">
         <x:v>0.000038</x:v>
       </x:c>
-      <x:c r="G6">
+      <x:c r="G6" s="1">
         <x:v>0.000046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7">
+      <x:c r="A7" s="1">
         <x:f>2^10</x:f>
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B7">
+      <x:c r="B7" s="1">
         <x:v>0.000434</x:v>
       </x:c>
-      <x:c r="C7">
+      <x:c r="C7" s="1">
         <x:v>0.00021000000000000002</x:v>
       </x:c>
-      <x:c r="D7">
+      <x:c r="D7" s="1">
         <x:v>0.00083399999999999996</x:v>
       </x:c>
-      <x:c r="E7">
+      <x:c r="E7" s="1">
         <x:v>0.000088</x:v>
       </x:c>
-      <x:c r="F7">
+      <x:c r="F7" s="1">
         <x:v>0.000064999999999999991</x:v>
       </x:c>
-      <x:c r="G7">
+      <x:c r="G7" s="1">
         <x:v>0.000082000000000000006</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8">
+      <x:c r="A8" s="1">
         <x:f>2^11</x:f>
         <x:v>2048</x:v>
       </x:c>
-      <x:c r="B8">
+      <x:c r="B8" s="1">
         <x:v>0.0014280000000000001</x:v>
       </x:c>
-      <x:c r="C8">
+      <x:c r="C8" s="1">
         <x:v>0.00084500000000000008</x:v>
       </x:c>
-      <x:c r="D8">
+      <x:c r="D8" s="1">
         <x:v>0.003211</x:v>
       </x:c>
-      <x:c r="E8">
-        <x:v>0.00024000000000000002</x:v>
-      </x:c>
-      <x:c r="F8">
+      <x:c r="E8" s="1">
+        <x:v>0.00024000000000000005</x:v>
+      </x:c>
+      <x:c r="F8" s="1">
         <x:v>0.00017399999999999999</x:v>
       </x:c>
-      <x:c r="G8">
+      <x:c r="G8" s="1">
         <x:v>0.00024899999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9">
+      <x:c r="A9" s="1">
         <x:f>2^12</x:f>
         <x:v>4096</x:v>
       </x:c>
-      <x:c r="B9">
+      <x:c r="B9" s="1">
         <x:v>0.0063039999999999996</x:v>
       </x:c>
-      <x:c r="C9">
+      <x:c r="C9" s="1">
         <x:v>0.0036219999999999997</x:v>
       </x:c>
-      <x:c r="D9">
+      <x:c r="D9" s="1">
         <x:v>0.013769000000000001</x:v>
       </x:c>
-      <x:c r="E9">
+      <x:c r="E9" s="1">
         <x:v>0.00048099999999999998</x:v>
       </x:c>
-      <x:c r="F9">
+      <x:c r="F9" s="1">
         <x:v>0.00031</x:v>
       </x:c>
-      <x:c r="G9">
-        <x:v>0.00040600000000000003</x:v>
+      <x:c r="G9" s="1">
+        <x:v>0.00040600000000000008</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10">
+      <x:c r="A10" s="1">
         <x:f>2^13</x:f>
         <x:v>8192</x:v>
       </x:c>
-      <x:c r="B10">
+      <x:c r="B10" s="1">
         <x:v>0.017253000000000002</x:v>
       </x:c>
-      <x:c r="C10">
+      <x:c r="C10" s="1">
         <x:v>0.010042000000000001</x:v>
       </x:c>
-      <x:c r="D10">
+      <x:c r="D10" s="1">
         <x:v>0.058202999999999994</x:v>
       </x:c>
-      <x:c r="E10">
+      <x:c r="E10" s="1">
         <x:v>0.00094499999999999995</x:v>
       </x:c>
-      <x:c r="F10">
+      <x:c r="F10" s="1">
         <x:v>0.00055699999999999994</x:v>
       </x:c>
-      <x:c r="G10">
+      <x:c r="G10" s="1">
         <x:v>0.00076200000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11">
+      <x:c r="A11" s="1">
         <x:f>2^14</x:f>
         <x:v>16384</x:v>
       </x:c>
-      <x:c r="B11">
+      <x:c r="B11" s="1">
         <x:v>0.06540999999999999</x:v>
       </x:c>
-      <x:c r="C11">
+      <x:c r="C11" s="1">
         <x:v>0.042895999999999995</x:v>
       </x:c>
-      <x:c r="D11">
+      <x:c r="D11" s="1">
         <x:v>0.357265</x:v>
       </x:c>
-      <x:c r="E11">
+      <x:c r="E11" s="1">
         <x:v>0.0022989999999999999</x:v>
       </x:c>
-      <x:c r="F11">
+      <x:c r="F11" s="1">
         <x:v>0.0013339999999999999</x:v>
       </x:c>
-      <x:c r="G11">
+      <x:c r="G11" s="1">
         <x:v>0.001898</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12">
+      <x:c r="A12" s="1">
         <x:f>2^15</x:f>
         <x:v>32768</x:v>
       </x:c>
-      <x:c r="B12">
+      <x:c r="B12" s="1">
         <x:v>0.23049900000000001</x:v>
       </x:c>
-      <x:c r="C12">
+      <x:c r="C12" s="1">
         <x:v>0.18470600000000001</x:v>
       </x:c>
-      <x:c r="D12">
+      <x:c r="D12" s="1">
         <x:v>1.639405</x:v>
       </x:c>
-      <x:c r="E12">
+      <x:c r="E12" s="1">
         <x:v>0.0054869999999999997</x:v>
       </x:c>
-      <x:c r="F12">
+      <x:c r="F12" s="1">
         <x:v>0.0027550000000000002</x:v>
       </x:c>
-      <x:c r="G12">
+      <x:c r="G12" s="1">
         <x:v>0.0038579999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13">
+      <x:c r="A13" s="1">
         <x:f>2^16</x:f>
         <x:v>65536</x:v>
       </x:c>
-      <x:c r="B13">
+      <x:c r="B13" s="1">
         <x:v>1.3513790000000001</x:v>
       </x:c>
-      <x:c r="C13">
+      <x:c r="C13" s="1">
         <x:v>0.78764400000000001</x:v>
       </x:c>
-      <x:c r="D13">
+      <x:c r="D13" s="1">
         <x:v>6.8987379999999998</x:v>
       </x:c>
-      <x:c r="E13">
+      <x:c r="E13" s="1">
         <x:v>0.011602</x:v>
       </x:c>
-      <x:c r="F13">
+      <x:c r="F13" s="1">
         <x:v>0.0062170000000000003</x:v>
       </x:c>
-      <x:c r="G13">
+      <x:c r="G13" s="1">
         <x:v>0.0096830000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14">
+      <x:c r="A14" s="1">
         <x:f>2^17</x:f>
         <x:v>131072</x:v>
       </x:c>
-      <x:c r="B14">
+      <x:c r="B14" s="1">
         <x:v>4.0955240000000002</x:v>
       </x:c>
-      <x:c r="C14">
+      <x:c r="C14" s="1">
         <x:v>2.8005599999999999</x:v>
       </x:c>
-      <x:c r="D14">
+      <x:c r="D14" s="1">
         <x:v>26.026751000000001</x:v>
       </x:c>
-      <x:c r="E14">
+      <x:c r="E14" s="1">
         <x:v>0.0251</x:v>
       </x:c>
-      <x:c r="F14">
+      <x:c r="F14" s="1">
         <x:v>0.012923000000000001</x:v>
       </x:c>
-      <x:c r="G14">
+      <x:c r="G14" s="1">
         <x:v>0.018336999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15">
+      <x:c r="A15" s="1">
         <x:f>2^18</x:f>
         <x:v>262144</x:v>
       </x:c>
-      <x:c r="B15">
+      <x:c r="B15" s="1">
         <x:v>19.919094000000001</x:v>
       </x:c>
-      <x:c r="C15">
+      <x:c r="C15" s="1">
         <x:v>12.336843</x:v>
       </x:c>
-      <x:c r="D15">
+      <x:c r="D15" s="1">
         <x:v>107.175865</x:v>
       </x:c>
-      <x:c r="E15">
+      <x:c r="E15" s="1">
         <x:v>0.054354000000000002</x:v>
       </x:c>
-      <x:c r="F15">
+      <x:c r="F15" s="1">
         <x:v>0.025749</x:v>
       </x:c>
-      <x:c r="G15">
+      <x:c r="G15" s="1">
         <x:v>0.042731999999999998</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16">
+      <x:c r="A16" s="1">
         <x:f>2^19</x:f>
         <x:v>524288</x:v>
       </x:c>
-      <x:c r="B16">
+      <x:c r="B16" s="1">
         <x:v>93.698882999999995</x:v>
       </x:c>
-      <x:c r="C16">
+      <x:c r="C16" s="1">
         <x:v>51.529409999999999</x:v>
       </x:c>
-      <x:c r="D16">
+      <x:c r="D16" s="1">
         <x:v>563.35839999999996</x:v>
       </x:c>
-      <x:c r="E16">
+      <x:c r="E16" s="1">
         <x:v>0.12701100000000001</x:v>
       </x:c>
-      <x:c r="F16">
+      <x:c r="F16" s="1">
         <x:v>0.080253000000000008</x:v>
       </x:c>
-      <x:c r="G16">
+      <x:c r="G16" s="1">
         <x:v>0.046021000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17">
+      <x:c r="A17" s="1">
         <x:f>2^20</x:f>
         <x:v>1048576</x:v>
       </x:c>
-      <x:c r="B17">
+      <x:c r="B17" s="1">
         <x:v>595.84012299999995</x:v>
       </x:c>
-      <x:c r="C17">
+      <x:c r="C17" s="1">
         <x:v>535.12842999999998</x:v>
       </x:c>
-      <x:c r="D17">
+      <x:c r="D17" s="1">
         <x:v>2270.1248999999998</x:v>
       </x:c>
-      <x:c r="E17">
+      <x:c r="E17" s="1">
         <x:v>0.26321499999999998</x:v>
       </x:c>
-      <x:c r="F17">
+      <x:c r="F17" s="1">
         <x:v>0.21305099999999999</x:v>
       </x:c>
-      <x:c r="G17">
+      <x:c r="G17" s="1">
         <x:v>0.110703</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
